--- a/cloud/名人生辰.xlsx
+++ b/cloud/名人生辰.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="349">
   <si>
     <t>时间</t>
   </si>
@@ -960,6 +960,9 @@
     <t>富兰克林·罗斯福（1882年1月30日—1945年4月12日）</t>
   </si>
   <si>
+    <t>汪精卫（1883年5月4日-1944年11月10日）</t>
+  </si>
+  <si>
     <t>约翰·梅纳德·凯恩斯（1883年6月5日—1946年4月21日）</t>
   </si>
   <si>
@@ -1110,10 +1113,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1143,11 +1146,107 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1168,20 +1267,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1189,66 +1274,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1258,30 +1285,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1398,19 +1401,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1422,7 +1443,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1434,7 +1497,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1446,79 +1509,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1536,31 +1539,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1572,7 +1563,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1583,6 +1586,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1606,50 +1618,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1683,6 +1651,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1691,10 +1694,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1703,133 +1706,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="42" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="42" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2281,9 +2284,9 @@
   <dimension ref="A1:E7034"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5750" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A6869" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D5773" sqref="D5773"/>
+      <selection pane="bottomLeft" activeCell="C6885" sqref="C6885"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -40211,8 +40214,11 @@
         <v>1883</v>
       </c>
       <c r="B6885" s="8"/>
+      <c r="C6885" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="D6885" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6886" spans="1:4">
@@ -40221,7 +40227,7 @@
       </c>
       <c r="B6886" s="8"/>
       <c r="D6886" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6887" spans="1:2">
@@ -40236,7 +40242,7 @@
       </c>
       <c r="B6888" s="8"/>
       <c r="D6888" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6889" spans="1:4">
@@ -40245,10 +40251,10 @@
       </c>
       <c r="B6889" s="8"/>
       <c r="C6889" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D6889" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6890" spans="1:2">
@@ -40263,7 +40269,7 @@
       </c>
       <c r="B6891" s="8"/>
       <c r="D6891" s="18" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6892" ht="40.5" spans="1:4">
@@ -40272,10 +40278,10 @@
       </c>
       <c r="B6892" s="8"/>
       <c r="C6892" s="18" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D6892" s="18" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6893" ht="27" spans="1:4">
@@ -40284,10 +40290,10 @@
       </c>
       <c r="B6893" s="8"/>
       <c r="C6893" s="18" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D6893" s="18" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6894" spans="1:3">
@@ -40296,7 +40302,7 @@
       </c>
       <c r="B6894" s="8"/>
       <c r="C6894" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6895" ht="27" spans="1:3">
@@ -40305,7 +40311,7 @@
       </c>
       <c r="B6895" s="8"/>
       <c r="C6895" s="18" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6896" spans="1:4">
@@ -40314,7 +40320,7 @@
       </c>
       <c r="B6896" s="8"/>
       <c r="D6896" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6897" spans="1:2">
@@ -40329,10 +40335,10 @@
       </c>
       <c r="B6898" s="8"/>
       <c r="C6898" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D6898" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6899" ht="27" spans="1:3">
@@ -40341,7 +40347,7 @@
       </c>
       <c r="B6899" s="8"/>
       <c r="C6899" s="18" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6900" ht="40.5" spans="1:3">
@@ -40350,7 +40356,7 @@
       </c>
       <c r="B6900" s="8"/>
       <c r="C6900" s="18" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6901" ht="27" spans="1:4">
@@ -40359,7 +40365,7 @@
       </c>
       <c r="B6901" s="8"/>
       <c r="D6901" s="18" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6902" spans="1:2">
@@ -40374,10 +40380,10 @@
       </c>
       <c r="B6903" s="8"/>
       <c r="C6903" s="18" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D6903" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6904" ht="40.5" spans="1:3">
@@ -40386,7 +40392,7 @@
       </c>
       <c r="B6904" s="8"/>
       <c r="C6904" s="18" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6905" spans="1:2">
@@ -40401,7 +40407,7 @@
       </c>
       <c r="B6906" s="8"/>
       <c r="C6906" s="18" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6907" spans="1:2">
@@ -40416,7 +40422,7 @@
       </c>
       <c r="B6908" s="8"/>
       <c r="D6908" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6909" ht="27" spans="1:3">
@@ -40425,7 +40431,7 @@
       </c>
       <c r="B6909" s="8"/>
       <c r="C6909" s="18" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6910" spans="1:2">
@@ -40439,7 +40445,7 @@
         <v>1909</v>
       </c>
       <c r="B6911" s="31" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6912" spans="1:2">
@@ -40459,7 +40465,7 @@
         <v>1912</v>
       </c>
       <c r="D6914" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6915" spans="1:1">
@@ -40507,7 +40513,7 @@
         <v>1921</v>
       </c>
       <c r="D6923" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6924" spans="1:1">
@@ -40545,7 +40551,7 @@
         <v>1928</v>
       </c>
       <c r="C6930" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6931" spans="1:1">
@@ -40563,7 +40569,7 @@
         <v>1931</v>
       </c>
       <c r="D6933" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6934" spans="1:1">
@@ -40616,7 +40622,7 @@
         <v>1941</v>
       </c>
       <c r="D6943" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6944" spans="1:3">
@@ -40624,7 +40630,7 @@
         <v>1942</v>
       </c>
       <c r="C6944" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6945" spans="1:1">
@@ -40637,7 +40643,7 @@
         <v>1944</v>
       </c>
       <c r="C6946" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6947" spans="1:1">
@@ -40650,7 +40656,7 @@
         <v>1946</v>
       </c>
       <c r="D6948" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6949" spans="1:4">
@@ -40658,7 +40664,7 @@
         <v>1947</v>
       </c>
       <c r="D6949" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6950" spans="1:3">
@@ -40666,7 +40672,7 @@
         <v>1948</v>
       </c>
       <c r="C6950" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6951" spans="1:1">
@@ -40679,7 +40685,7 @@
         <v>1950</v>
       </c>
       <c r="C6952" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6953" spans="1:3">
@@ -40687,7 +40693,7 @@
         <v>1951</v>
       </c>
       <c r="C6953" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6954" spans="1:4">
@@ -40695,7 +40701,7 @@
         <v>1952</v>
       </c>
       <c r="D6954" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6955" spans="1:3">
@@ -40703,7 +40709,7 @@
         <v>1953</v>
       </c>
       <c r="C6955" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6956" spans="1:1">
@@ -40721,7 +40727,7 @@
         <v>1956</v>
       </c>
       <c r="C6958" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6959" spans="1:3">
@@ -40729,7 +40735,7 @@
         <v>1957</v>
       </c>
       <c r="C6959" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6960" spans="1:1">
@@ -40752,7 +40758,7 @@
         <v>1961</v>
       </c>
       <c r="C6963" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6964" spans="1:1">
@@ -40870,7 +40876,7 @@
         <v>1984</v>
       </c>
       <c r="D6986" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6987" spans="1:1">
